--- a/publicfiles/file.xlsx
+++ b/publicfiles/file.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sspm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojasv\OneDrive\Documents\WT_1\WT_project\publicfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F22E7D-E504-4624-974E-33FCC702DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT-1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,7 +644,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -739,6 +740,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -774,6 +792,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -949,11 +984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="I279" sqref="I279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5385,7 +5420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
